--- a/stock_tracker.xlsx
+++ b/stock_tracker.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Recommendations" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Recomendations" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Trade_History" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>

--- a/stock_tracker.xlsx
+++ b/stock_tracker.xlsx
@@ -496,7 +496,7 @@
         <v>512.6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="G2" t="n">
         <v>0.3</v>
@@ -523,7 +523,7 @@
         <v>93.02</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="G3" t="n">
         <v>0.8</v>
@@ -577,7 +577,7 @@
         <v>1.67</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="G5" t="n">
         <v>0.6</v>
@@ -604,7 +604,7 @@
         <v>445</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="G6" t="n">
         <v>1.1</v>
@@ -631,7 +631,7 @@
         <v>119.4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="G7" t="n">
         <v>7.6</v>
@@ -685,7 +685,7 @@
         <v>1.67</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="G9" t="n">
         <v>1.8</v>
@@ -712,7 +712,7 @@
         <v>558</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="G10" t="n">
         <v>1.5</v>
@@ -793,7 +793,7 @@
         <v>184.65</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="G13" t="n">
         <v>-0.6</v>
@@ -820,7 +820,7 @@
         <v>1583.5</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="G14" t="n">
         <v>1.7</v>
@@ -874,7 +874,7 @@
         <v>4.64</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="G16" t="n">
         <v>4.5</v>
@@ -955,7 +955,7 @@
         <v>935</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="G19" t="n">
         <v>5.6</v>
@@ -1009,7 +1009,7 @@
         <v>164.2</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>1010.2</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>30.65</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>114.16</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>69.8</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>

--- a/stock_tracker.xlsx
+++ b/stock_tracker.xlsx
@@ -33,12 +33,24 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -59,12 +71,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,22 +498,22 @@
       <c r="B2" t="n">
         <v>511.2</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Покупка</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>46049</v>
       </c>
       <c r="E2" t="n">
-        <v>512.6</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>46054</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.3</v>
+        <v>511.4</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -511,22 +525,22 @@
       <c r="B3" t="n">
         <v>92.26000000000001</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Покупка</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>46049</v>
       </c>
       <c r="E3" t="n">
-        <v>93.02</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>46054</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8</v>
+        <v>94.31999999999999</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
@@ -538,22 +552,22 @@
       <c r="B4" t="n">
         <v>0.65</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
         <v>46049</v>
       </c>
       <c r="E4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="F4" s="2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="G4" t="n">
-        <v>13.8</v>
+      <c r="G4" s="4" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -565,22 +579,22 @@
       <c r="B5" t="n">
         <v>1.66</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
         <v>46049</v>
       </c>
       <c r="E5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>46054</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6</v>
+        <v>1.72</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +606,22 @@
       <c r="B6" t="n">
         <v>440</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
         <v>46049</v>
       </c>
       <c r="E6" t="n">
-        <v>445</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>46054</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.1</v>
+        <v>445.6</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="7">
@@ -619,22 +633,22 @@
       <c r="B7" t="n">
         <v>111</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>46049</v>
       </c>
       <c r="E7" t="n">
-        <v>119.4</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>46054</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7.6</v>
+        <v>119.65</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>7.8</v>
       </c>
     </row>
     <row r="8">
@@ -646,22 +660,22 @@
       <c r="B8" t="n">
         <v>54.87</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
         <v>46049</v>
       </c>
       <c r="E8" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>46050</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.3</v>
+        <v>55.2</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>46050</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="9">
@@ -673,22 +687,22 @@
       <c r="B9" t="n">
         <v>1.64</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
         <v>46050</v>
       </c>
       <c r="E9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>46054</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="10">
@@ -700,22 +714,22 @@
       <c r="B10" t="n">
         <v>550</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
         <v>46050</v>
       </c>
       <c r="E10" t="n">
-        <v>558</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>46054</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.5</v>
+        <v>575.5</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="11">
@@ -727,22 +741,22 @@
       <c r="B11" t="n">
         <v>53</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n">
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
         <v>46050</v>
       </c>
       <c r="E11" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="F11" s="2" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="F11" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="G11" t="n">
-        <v>-1.7</v>
+      <c r="G11" s="2" t="n">
+        <v>-1.1</v>
       </c>
     </row>
     <row r="12">
@@ -754,21 +768,21 @@
       <c r="B12" t="n">
         <v>3.59</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
         <v>46050</v>
       </c>
       <c r="E12" t="n">
         <v>3.54</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="2" t="n">
         <v>-1.4</v>
       </c>
     </row>
@@ -781,22 +795,22 @@
       <c r="B13" t="n">
         <v>185.68</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
         <v>46050</v>
       </c>
       <c r="E13" t="n">
-        <v>184.65</v>
-      </c>
-      <c r="F13" s="2" t="n">
+        <v>188.41</v>
+      </c>
+      <c r="F13" s="3" t="n">
         <v>46054</v>
       </c>
-      <c r="G13" t="n">
-        <v>-0.6</v>
+      <c r="G13" s="4" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="14">
@@ -808,22 +822,22 @@
       <c r="B14" t="n">
         <v>1557</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
         <v>46050</v>
       </c>
       <c r="E14" t="n">
-        <v>1583.5</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>46054</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.7</v>
+        <v>1566</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
@@ -835,22 +849,22 @@
       <c r="B15" t="n">
         <v>18674</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
         <v>46050</v>
       </c>
       <c r="E15" t="n">
-        <v>18710</v>
-      </c>
-      <c r="F15" s="2" t="n">
+        <v>18698</v>
+      </c>
+      <c r="F15" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.2</v>
+      <c r="G15" s="4" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="16">
@@ -862,22 +876,22 @@
       <c r="B16" t="n">
         <v>4.44</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
         <v>46050</v>
       </c>
       <c r="E16" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>46054</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4.5</v>
+        <v>4.62</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="17">
@@ -889,22 +903,22 @@
       <c r="B17" t="n">
         <v>6.3</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
         <v>46050</v>
       </c>
       <c r="E17" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>46050</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-2.5</v>
+        <v>6.19</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>46050</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="18">
@@ -916,22 +930,22 @@
       <c r="B18" t="n">
         <v>123.52</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n">
         <v>46050</v>
       </c>
       <c r="E18" t="n">
-        <v>123.28</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>46052</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.2</v>
+        <v>125.84</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="19">
@@ -943,22 +957,22 @@
       <c r="B19" t="n">
         <v>885</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
         <v>46050</v>
       </c>
       <c r="E19" t="n">
-        <v>935</v>
-      </c>
-      <c r="F19" s="2" t="n">
+        <v>890</v>
+      </c>
+      <c r="F19" s="3" t="n">
         <v>46054</v>
       </c>
-      <c r="G19" t="n">
-        <v>5.6</v>
+      <c r="G19" s="4" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="20">
@@ -970,22 +984,22 @@
       <c r="B20" t="n">
         <v>22.85</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n">
         <v>46050</v>
       </c>
       <c r="E20" t="n">
-        <v>22.42</v>
-      </c>
-      <c r="F20" s="2" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="F20" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="G20" t="n">
-        <v>-1.9</v>
+      <c r="G20" s="4" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="21">
@@ -997,22 +1011,22 @@
       <c r="B21" t="n">
         <v>164.2</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Покупка</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="3" t="n">
         <v>46053</v>
       </c>
       <c r="E21" t="n">
-        <v>164.2</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>46054</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+        <v>164.95</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1038,22 @@
       <c r="B22" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>Покупка</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="3" t="n">
         <v>46053</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F22" s="2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F22" s="3" t="n">
         <v>46054</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
+      <c r="G22" s="2" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="23">
@@ -1051,22 +1065,22 @@
       <c r="B23" t="n">
         <v>1010.2</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="n">
         <v>46053</v>
       </c>
       <c r="E23" t="n">
-        <v>1010.2</v>
-      </c>
-      <c r="F23" s="2" t="n">
+        <v>983.8</v>
+      </c>
+      <c r="F23" s="3" t="n">
         <v>46054</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
+      <c r="G23" s="2" t="n">
+        <v>-2.6</v>
       </c>
     </row>
     <row r="24">
@@ -1078,22 +1092,22 @@
       <c r="B24" t="n">
         <v>30.65</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="n">
         <v>46053</v>
       </c>
       <c r="E24" t="n">
-        <v>30.65</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>46054</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
+        <v>30.95</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1105,22 +1119,22 @@
       <c r="B25" t="n">
         <v>114.16</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n">
         <v>46053</v>
       </c>
       <c r="E25" t="n">
-        <v>114.16</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>46054</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+        <v>115.12</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="26">
@@ -1132,21 +1146,75 @@
       <c r="B26" t="n">
         <v>69.8</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Продажа</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n">
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n">
         <v>46053</v>
       </c>
       <c r="E26" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>46054</v>
-      </c>
-      <c r="G26" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>FIXR</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Покупка</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>46055</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>LSRG</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>725.2</v>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="E28" t="n">
+        <v>725.2</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="G28" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/stock_tracker.xlsx
+++ b/stock_tracker.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,13 +507,13 @@
         <v>46049</v>
       </c>
       <c r="E2" t="n">
-        <v>511.4</v>
+        <v>509</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>46056</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
+        <v>46060</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="3">
@@ -534,13 +534,13 @@
         <v>46049</v>
       </c>
       <c r="E3" t="n">
-        <v>94.31999999999999</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>46056</v>
+        <v>46060</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -561,13 +561,13 @@
         <v>46049</v>
       </c>
       <c r="E4" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>46052</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>20</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="5">
@@ -588,13 +588,13 @@
         <v>46049</v>
       </c>
       <c r="E5" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>46056</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>3.6</v>
+        <v>46058</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="6">
@@ -615,13 +615,13 @@
         <v>46049</v>
       </c>
       <c r="E6" t="n">
-        <v>445.6</v>
+        <v>438.2</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>46056</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.3</v>
+        <v>46058</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="7">
@@ -642,13 +642,13 @@
         <v>46049</v>
       </c>
       <c r="E7" t="n">
-        <v>119.65</v>
+        <v>115.85</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>46056</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>7.8</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="8">
@@ -669,13 +669,13 @@
         <v>46049</v>
       </c>
       <c r="E8" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>46050</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9">
@@ -696,13 +696,13 @@
         <v>46050</v>
       </c>
       <c r="E9" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>46056</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.6</v>
+        <v>46058</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>-1.8</v>
       </c>
     </row>
     <row r="10">
@@ -723,13 +723,13 @@
         <v>46050</v>
       </c>
       <c r="E10" t="n">
-        <v>575.5</v>
+        <v>546</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>46056</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>4.6</v>
+        <v>46058</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>-0.7</v>
       </c>
     </row>
     <row r="11">
@@ -750,13 +750,13 @@
         <v>46050</v>
       </c>
       <c r="E11" t="n">
-        <v>52.4</v>
+        <v>52.49</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>46052</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -777,13 +777,13 @@
         <v>46050</v>
       </c>
       <c r="E12" t="n">
-        <v>3.54</v>
+        <v>3.45</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>46052</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>-1.4</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="13">
@@ -804,13 +804,13 @@
         <v>46050</v>
       </c>
       <c r="E13" t="n">
-        <v>188.41</v>
+        <v>180.36</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>46054</v>
       </c>
-      <c r="G13" s="4" t="n">
-        <v>1.5</v>
+      <c r="G13" s="2" t="n">
+        <v>-2.9</v>
       </c>
     </row>
     <row r="14">
@@ -831,13 +831,13 @@
         <v>46050</v>
       </c>
       <c r="E14" t="n">
-        <v>1566</v>
+        <v>1521</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>46056</v>
       </c>
-      <c r="G14" s="4" t="n">
-        <v>0.6</v>
+      <c r="G14" s="2" t="n">
+        <v>-2.3</v>
       </c>
     </row>
     <row r="15">
@@ -858,13 +858,13 @@
         <v>46050</v>
       </c>
       <c r="E15" t="n">
-        <v>18698</v>
+        <v>18574</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>46052</v>
       </c>
-      <c r="G15" s="4" t="n">
-        <v>0.1</v>
+      <c r="G15" s="2" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16">
@@ -885,13 +885,13 @@
         <v>46050</v>
       </c>
       <c r="E16" t="n">
-        <v>4.62</v>
+        <v>4.51</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>46056</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="17">
@@ -912,13 +912,13 @@
         <v>46050</v>
       </c>
       <c r="E17" t="n">
-        <v>6.19</v>
+        <v>6.11</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>46050</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>-1.7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="18">
@@ -939,13 +939,13 @@
         <v>46050</v>
       </c>
       <c r="E18" t="n">
-        <v>125.84</v>
+        <v>125.02</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>46056</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         <v>46050</v>
       </c>
       <c r="E19" t="n">
-        <v>890</v>
+        <v>814</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>46054</v>
       </c>
-      <c r="G19" s="4" t="n">
-        <v>0.6</v>
+      <c r="G19" s="2" t="n">
+        <v>-8</v>
       </c>
     </row>
     <row r="20">
@@ -993,13 +993,13 @@
         <v>46050</v>
       </c>
       <c r="E20" t="n">
-        <v>23.4</v>
+        <v>22.92</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>46052</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21">
@@ -1020,13 +1020,13 @@
         <v>46053</v>
       </c>
       <c r="E21" t="n">
-        <v>164.95</v>
+        <v>162.6</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>46056</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>0.5</v>
+        <v>46060</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -1047,13 +1047,13 @@
         <v>46053</v>
       </c>
       <c r="E22" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>46054</v>
       </c>
-      <c r="G22" s="2" t="n">
-        <v>1.8</v>
+      <c r="G22" s="4" t="n">
+        <v>-1.8</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>46053</v>
       </c>
       <c r="E23" t="n">
-        <v>983.8</v>
+        <v>968.2</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>46054</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>-2.6</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="24">
@@ -1101,13 +1101,13 @@
         <v>46053</v>
       </c>
       <c r="E24" t="n">
-        <v>30.95</v>
+        <v>32.23</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>46056</v>
+        <v>46060</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="25">
@@ -1128,13 +1128,13 @@
         <v>46053</v>
       </c>
       <c r="E25" t="n">
-        <v>115.12</v>
+        <v>110.2</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>46056</v>
-      </c>
-      <c r="G25" s="4" t="n">
-        <v>0.8</v>
+        <v>46058</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>-3.5</v>
       </c>
     </row>
     <row r="26">
@@ -1155,13 +1155,13 @@
         <v>46053</v>
       </c>
       <c r="E26" t="n">
-        <v>70.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>46056</v>
-      </c>
-      <c r="G26" s="4" t="n">
-        <v>0.6</v>
+        <v>46058</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="27">
@@ -1185,7 +1185,7 @@
         <v>0.57</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>46056</v>
+        <v>46060</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>0</v>
@@ -1209,12 +1209,66 @@
         <v>46056</v>
       </c>
       <c r="E28" t="n">
-        <v>725.2</v>
+        <v>706.4</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>46056</v>
-      </c>
-      <c r="G28" s="4" t="n">
+        <v>46058</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>SMLT</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>856.2</v>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Покупка</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>46060</v>
+      </c>
+      <c r="E29" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>46060</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>CNTL</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Покупка</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>46060</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>46060</v>
+      </c>
+      <c r="G30" s="2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/stock_tracker.xlsx
+++ b/stock_tracker.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,13 +507,13 @@
         <v>46049</v>
       </c>
       <c r="E2" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="3">
@@ -534,10 +534,10 @@
         <v>46049</v>
       </c>
       <c r="E3" t="n">
-        <v>92.73999999999999</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0.5</v>
@@ -561,13 +561,13 @@
         <v>46049</v>
       </c>
       <c r="E4" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>46052</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>26.2</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="5">
@@ -615,13 +615,13 @@
         <v>46049</v>
       </c>
       <c r="E6" t="n">
-        <v>438.2</v>
+        <v>438.6</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>46058</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="7">
@@ -642,13 +642,13 @@
         <v>46049</v>
       </c>
       <c r="E7" t="n">
-        <v>115.85</v>
+        <v>115.5</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>46056</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="8">
@@ -669,13 +669,13 @@
         <v>46049</v>
       </c>
       <c r="E8" t="n">
-        <v>55.3</v>
+        <v>55.27</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>46050</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
@@ -723,13 +723,13 @@
         <v>46050</v>
       </c>
       <c r="E10" t="n">
-        <v>546</v>
+        <v>546.5</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>46058</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="11">
@@ -750,13 +750,13 @@
         <v>46050</v>
       </c>
       <c r="E11" t="n">
-        <v>52.49</v>
+        <v>52.54</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>46052</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="12">
@@ -804,13 +804,13 @@
         <v>46050</v>
       </c>
       <c r="E13" t="n">
-        <v>180.36</v>
+        <v>180.1</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>46054</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="14">
@@ -831,13 +831,13 @@
         <v>46050</v>
       </c>
       <c r="E14" t="n">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>46056</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>-2.3</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="15">
@@ -858,13 +858,13 @@
         <v>46050</v>
       </c>
       <c r="E15" t="n">
-        <v>18574</v>
+        <v>18614</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>46052</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="16">
@@ -885,13 +885,13 @@
         <v>46050</v>
       </c>
       <c r="E16" t="n">
-        <v>4.51</v>
+        <v>4.52</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>46056</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="17">
@@ -912,13 +912,13 @@
         <v>46050</v>
       </c>
       <c r="E17" t="n">
-        <v>6.11</v>
+        <v>6.13</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>46050</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="18">
@@ -939,13 +939,13 @@
         <v>46050</v>
       </c>
       <c r="E18" t="n">
-        <v>125.02</v>
+        <v>125.4</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>46056</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         <v>46050</v>
       </c>
       <c r="E19" t="n">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>46054</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>-8</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="20">
@@ -993,13 +993,13 @@
         <v>46050</v>
       </c>
       <c r="E20" t="n">
-        <v>22.92</v>
+        <v>22.94</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>46052</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
@@ -1020,10 +1020,10 @@
         <v>46053</v>
       </c>
       <c r="E21" t="n">
-        <v>162.6</v>
+        <v>162.5</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="G21" s="4" t="n">
         <v>-1</v>
@@ -1074,13 +1074,13 @@
         <v>46053</v>
       </c>
       <c r="E23" t="n">
-        <v>968.2</v>
+        <v>968.6</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>46054</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="24">
@@ -1101,13 +1101,13 @@
         <v>46053</v>
       </c>
       <c r="E24" t="n">
-        <v>32.23</v>
+        <v>32.13</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="25">
@@ -1128,13 +1128,13 @@
         <v>46053</v>
       </c>
       <c r="E25" t="n">
-        <v>110.2</v>
+        <v>110.36</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>46058</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>-3.5</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="26">
@@ -1155,13 +1155,13 @@
         <v>46053</v>
       </c>
       <c r="E26" t="n">
-        <v>68.59999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="F26" s="3" t="n">
         <v>46058</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>-1.7</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="27">
@@ -1182,13 +1182,13 @@
         <v>46055</v>
       </c>
       <c r="E27" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>46060</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>0</v>
+        <v>46061</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>-1.8</v>
       </c>
     </row>
     <row r="28">
@@ -1209,13 +1209,13 @@
         <v>46056</v>
       </c>
       <c r="E28" t="n">
-        <v>706.4</v>
+        <v>705</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>46058</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>-2.6</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="29">
@@ -1236,13 +1236,13 @@
         <v>46060</v>
       </c>
       <c r="E29" t="n">
-        <v>856.8</v>
+        <v>854</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>46060</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>0.1</v>
+        <v>46061</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="30">
@@ -1263,13 +1263,40 @@
         <v>46060</v>
       </c>
       <c r="E30" t="n">
-        <v>9.359999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>302.05</v>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Покупка</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>46061</v>
+      </c>
+      <c r="E31" t="n">
+        <v>302.04</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>46061</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/stock_tracker.xlsx
+++ b/stock_tracker.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,13 +507,13 @@
         <v>46049</v>
       </c>
       <c r="E2" t="n">
-        <v>510</v>
+        <v>505.8</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>46061</v>
+        <v>46065</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-0.2</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="3">
@@ -534,13 +534,13 @@
         <v>46049</v>
       </c>
       <c r="E3" t="n">
-        <v>92.68000000000001</v>
+        <v>91</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>46061</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0.5</v>
+        <v>46065</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>-1.4</v>
       </c>
     </row>
     <row r="4">
@@ -561,13 +561,13 @@
         <v>46049</v>
       </c>
       <c r="E4" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>46052</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>27.7</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="5">
@@ -588,13 +588,13 @@
         <v>46049</v>
       </c>
       <c r="E5" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>46058</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>-0.6</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="6">
@@ -615,23 +615,23 @@
         <v>46049</v>
       </c>
       <c r="E6" t="n">
-        <v>438.6</v>
+        <v>427.2</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>46058</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>-0.3</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RNFT</t>
+          <t>FESH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111</v>
+        <v>54.87</v>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
@@ -642,23 +642,23 @@
         <v>46049</v>
       </c>
       <c r="E7" t="n">
-        <v>115.5</v>
+        <v>53.47</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>46056</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>4.1</v>
+        <v>46050</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>-2.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>FESH</t>
+          <t>UPRO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.87</v>
+        <v>1.64</v>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
@@ -666,26 +666,26 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="E8" t="n">
-        <v>55.27</v>
+        <v>1.58</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>46050</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.7</v>
+        <v>46058</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>-3.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>UPRO</t>
+          <t>NKHP</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.64</v>
+        <v>550</v>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
@@ -696,23 +696,23 @@
         <v>46050</v>
       </c>
       <c r="E9" t="n">
-        <v>1.61</v>
+        <v>556</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>46058</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>-1.8</v>
+      <c r="G9" s="4" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>NKHP</t>
+          <t>OZPH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
@@ -723,23 +723,23 @@
         <v>46050</v>
       </c>
       <c r="E10" t="n">
-        <v>546.5</v>
+        <v>51.88</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>46058</v>
+        <v>46052</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>-0.6</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>OZPH</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>53</v>
+        <v>185.68</v>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
@@ -750,23 +750,23 @@
         <v>46050</v>
       </c>
       <c r="E11" t="n">
-        <v>52.54</v>
+        <v>180.86</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>46052</v>
+        <v>46054</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>-0.9</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>IRAO</t>
+          <t>AKRN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.59</v>
+        <v>18674</v>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
@@ -777,23 +777,23 @@
         <v>46050</v>
       </c>
       <c r="E12" t="n">
-        <v>3.45</v>
+        <v>18594</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>46052</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>-3.9</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>PRFN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.68</v>
+        <v>4.44</v>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
@@ -804,23 +804,23 @@
         <v>46050</v>
       </c>
       <c r="E13" t="n">
-        <v>180.1</v>
+        <v>4.66</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>46054</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>-3</v>
+        <v>46056</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>BANE</t>
+          <t>RAGR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1557</v>
+        <v>123.52</v>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
@@ -831,23 +831,23 @@
         <v>46050</v>
       </c>
       <c r="E14" t="n">
-        <v>1525</v>
+        <v>120.52</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>46056</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AKRN</t>
+          <t>LNZLP</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18674</v>
+        <v>885</v>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
@@ -858,23 +858,23 @@
         <v>46050</v>
       </c>
       <c r="E15" t="n">
-        <v>18614</v>
+        <v>674</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>46052</v>
+        <v>46054</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>-0.3</v>
+        <v>-23.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>PRFN</t>
+          <t>KLSB</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.44</v>
+        <v>22.85</v>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
@@ -885,77 +885,77 @@
         <v>46050</v>
       </c>
       <c r="E16" t="n">
-        <v>4.52</v>
+        <v>22.08</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>46056</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>1.8</v>
+        <v>46052</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>-3.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>CNTLP</t>
+          <t>IVAT</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Продажа</t>
+        <v>164.2</v>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Покупка</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46050</v>
+        <v>46053</v>
       </c>
       <c r="E17" t="n">
-        <v>6.13</v>
+        <v>162.7</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>46050</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>-2.7</v>
+        <v>46065</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>-0.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RAGR</t>
+          <t>MRKP</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>123.52</v>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>Продажа</t>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Покупка</t>
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46050</v>
+        <v>46053</v>
       </c>
       <c r="E18" t="n">
-        <v>125.4</v>
+        <v>0.55</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>46056</v>
+        <v>46054</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>1.5</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>LNZLP</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>885</v>
+        <v>1010.2</v>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
@@ -963,26 +963,26 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46050</v>
+        <v>46053</v>
       </c>
       <c r="E19" t="n">
-        <v>822</v>
+        <v>970.8</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>46054</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>-7.1</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>KLSB</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22.85</v>
+        <v>30.65</v>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
@@ -990,107 +990,107 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46050</v>
+        <v>46053</v>
       </c>
       <c r="E20" t="n">
-        <v>22.94</v>
+        <v>31.86</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>46052</v>
+        <v>46062</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>0.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>IVAT</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>164.2</v>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Покупка</t>
+        <v>114.16</v>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
         <v>46053</v>
       </c>
       <c r="E21" t="n">
-        <v>162.5</v>
+        <v>111.52</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>46061</v>
-      </c>
-      <c r="G21" s="4" t="n">
-        <v>-1</v>
+        <v>46058</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>-2.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>MRKP</t>
+          <t>KZOS</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>Покупка</t>
+        <v>69.8</v>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
         <v>46053</v>
       </c>
       <c r="E22" t="n">
-        <v>0.55</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>46054</v>
-      </c>
-      <c r="G22" s="4" t="n">
-        <v>-1.8</v>
+        <v>46058</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>-2.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>FIXR</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1010.2</v>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>Продажа</t>
+        <v>0.57</v>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Покупка</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46053</v>
+        <v>46055</v>
       </c>
       <c r="E23" t="n">
-        <v>968.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>46054</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>-4.1</v>
+        <v>46065</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>-1.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>LSRG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30.65</v>
+        <v>725.2</v>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
@@ -1098,80 +1098,80 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46053</v>
+        <v>46056</v>
       </c>
       <c r="E24" t="n">
-        <v>32.13</v>
+        <v>699.2</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>46061</v>
-      </c>
-      <c r="G24" s="4" t="n">
-        <v>4.8</v>
+        <v>46058</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>-3.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>SMLT</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>114.16</v>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>Продажа</t>
+        <v>856.2</v>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Покупка</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46053</v>
+        <v>46060</v>
       </c>
       <c r="E25" t="n">
-        <v>110.36</v>
+        <v>851.4</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>46058</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>-3.3</v>
+        <v>46065</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>KZOS</t>
+          <t>CNTL</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>Продажа</t>
+        <v>9.359999999999999</v>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Покупка</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>46053</v>
+        <v>46060</v>
       </c>
       <c r="E26" t="n">
-        <v>68.3</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>46058</v>
+        <v>46065</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>-2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>FIXR</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.57</v>
+        <v>302.05</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
@@ -1179,53 +1179,47 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46055</v>
+        <v>46061</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5600000000000001</v>
+        <v>305.31</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>46061</v>
-      </c>
-      <c r="G27" s="4" t="n">
-        <v>-1.8</v>
+        <v>46065</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>LSRG</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>725.2</v>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>Продажа</t>
+        <v>546.9</v>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Покупка</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46056</v>
-      </c>
-      <c r="E28" t="n">
-        <v>705</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>46058</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>-2.8</v>
-      </c>
+        <v>46065</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>SMLT</t>
+          <t>SNGS</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>856.2</v>
+        <v>21.89</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
@@ -1233,26 +1227,20 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46060</v>
-      </c>
-      <c r="E29" t="n">
-        <v>854</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>46061</v>
-      </c>
-      <c r="G29" s="4" t="n">
-        <v>-0.3</v>
-      </c>
+        <v>46065</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>CNTL</t>
+          <t>MRKV</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9.359999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
@@ -1260,26 +1248,20 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46060</v>
-      </c>
-      <c r="E30" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>46061</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>0.4</v>
-      </c>
+        <v>46065</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>MRKC</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.05</v>
+        <v>0.85</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
@@ -1287,17 +1269,32 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46061</v>
-      </c>
-      <c r="E31" t="n">
-        <v>302.04</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>46061</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>-0</v>
-      </c>
+        <v>46065</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>SVCB</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>46065</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1310,7 +1307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1345,6 +1342,90 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>CNTLP</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>BANE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1479.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>IRAO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RNFT</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>116.85</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_tracker.xlsx
+++ b/stock_tracker.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,13 +507,13 @@
         <v>46049</v>
       </c>
       <c r="E2" t="n">
-        <v>505.8</v>
+        <v>504.6</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>46065</v>
+        <v>46068</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-1.1</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="3">
@@ -534,13 +534,13 @@
         <v>46049</v>
       </c>
       <c r="E3" t="n">
-        <v>91</v>
+        <v>93.16</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>46065</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>-1.4</v>
+        <v>46066</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -561,13 +561,13 @@
         <v>46049</v>
       </c>
       <c r="E4" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>46052</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>21.5</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="5">
@@ -588,13 +588,13 @@
         <v>46049</v>
       </c>
       <c r="E5" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>46058</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>-1.2</v>
+      <c r="G5" s="4" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="6">
@@ -615,13 +615,13 @@
         <v>46049</v>
       </c>
       <c r="E6" t="n">
-        <v>427.2</v>
+        <v>430</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>46058</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>-2.9</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="7">
@@ -642,13 +642,13 @@
         <v>46049</v>
       </c>
       <c r="E7" t="n">
-        <v>53.47</v>
+        <v>53.91</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>46050</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>-2.6</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="8">
@@ -669,13 +669,13 @@
         <v>46050</v>
       </c>
       <c r="E8" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>46058</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>-3.7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="9">
@@ -696,13 +696,13 @@
         <v>46050</v>
       </c>
       <c r="E9" t="n">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>46058</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>1.1</v>
+      <c r="G9" s="2" t="n">
+        <v>-1.1</v>
       </c>
     </row>
     <row r="10">
@@ -723,13 +723,13 @@
         <v>46050</v>
       </c>
       <c r="E10" t="n">
-        <v>51.88</v>
+        <v>51.98</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>46052</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>-2.1</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="11">
@@ -750,13 +750,13 @@
         <v>46050</v>
       </c>
       <c r="E11" t="n">
-        <v>180.86</v>
+        <v>182.79</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>46054</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>-2.6</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="12">
@@ -777,13 +777,13 @@
         <v>46050</v>
       </c>
       <c r="E12" t="n">
-        <v>18594</v>
+        <v>18438</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>46052</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>-0.4</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="13">
@@ -804,13 +804,13 @@
         <v>46050</v>
       </c>
       <c r="E13" t="n">
-        <v>4.66</v>
+        <v>4.69</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>46056</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="14">
@@ -831,13 +831,13 @@
         <v>46050</v>
       </c>
       <c r="E14" t="n">
-        <v>120.52</v>
+        <v>120.44</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>46056</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="15">
@@ -858,13 +858,13 @@
         <v>46050</v>
       </c>
       <c r="E15" t="n">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>46054</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>-23.8</v>
+        <v>-27.5</v>
       </c>
     </row>
     <row r="16">
@@ -885,7 +885,7 @@
         <v>46050</v>
       </c>
       <c r="E16" t="n">
-        <v>22.08</v>
+        <v>22.07</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>46052</v>
@@ -912,13 +912,13 @@
         <v>46053</v>
       </c>
       <c r="E17" t="n">
-        <v>162.7</v>
+        <v>161.85</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>-0.9</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="18">
@@ -939,13 +939,13 @@
         <v>46053</v>
       </c>
       <c r="E18" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>46054</v>
       </c>
-      <c r="G18" s="4" t="n">
-        <v>-1.8</v>
+      <c r="G18" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         <v>46053</v>
       </c>
       <c r="E19" t="n">
-        <v>970.8</v>
+        <v>989.6</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>46054</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>-3.9</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20">
@@ -993,13 +993,13 @@
         <v>46053</v>
       </c>
       <c r="E20" t="n">
-        <v>31.86</v>
+        <v>32.88</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>46062</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>3.9</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="21">
@@ -1020,13 +1020,13 @@
         <v>46053</v>
       </c>
       <c r="E21" t="n">
-        <v>111.52</v>
+        <v>113.22</v>
       </c>
       <c r="F21" s="3" t="n">
         <v>46058</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>-2.3</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="22">
@@ -1047,13 +1047,13 @@
         <v>46053</v>
       </c>
       <c r="E22" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>46058</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>-2.7</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="23">
@@ -1077,7 +1077,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>46065</v>
+        <v>46068</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>-1.8</v>
@@ -1101,13 +1101,13 @@
         <v>46056</v>
       </c>
       <c r="E24" t="n">
-        <v>699.2</v>
+        <v>706</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>46058</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>-3.6</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="25">
@@ -1128,13 +1128,13 @@
         <v>46060</v>
       </c>
       <c r="E25" t="n">
-        <v>851.4</v>
+        <v>846.6</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>46065</v>
+        <v>46068</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>-0.6</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="26">
@@ -1155,13 +1155,13 @@
         <v>46060</v>
       </c>
       <c r="E26" t="n">
-        <v>9.359999999999999</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="27">
@@ -1182,13 +1182,13 @@
         <v>46061</v>
       </c>
       <c r="E27" t="n">
-        <v>305.31</v>
+        <v>308.55</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="28">
@@ -1208,9 +1208,15 @@
       <c r="D28" s="3" t="n">
         <v>46065</v>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>546.9</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>46068</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1229,9 +1235,15 @@
       <c r="D29" s="3" t="n">
         <v>46065</v>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>46066</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1250,9 +1262,15 @@
       <c r="D30" s="3" t="n">
         <v>46065</v>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>46066</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1271,9 +1289,15 @@
       <c r="D31" s="3" t="n">
         <v>46065</v>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>46066</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1292,9 +1316,144 @@
       <c r="D32" s="3" t="n">
         <v>46065</v>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>46068</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>CNTLP</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Покупка</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>46066</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>46068</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>BANE</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1479.5</v>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Покупка</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>46066</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1473</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>46068</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>IRAO</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Покупка</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>46066</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>46066</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RNFT</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>116.85</v>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Покупка</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>46066</v>
+      </c>
+      <c r="E36" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>46068</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>GEMC</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>876.6</v>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Покупка</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>46068</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
